--- a/biology/Zoologie/Hirondelle_à_tête_noire/Hirondelle_à_tête_noire.xlsx
+++ b/biology/Zoologie/Hirondelle_à_tête_noire/Hirondelle_à_tête_noire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hirondelle_%C3%A0_t%C3%AAte_noire</t>
+          <t>Hirondelle_à_tête_noire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Atticora pileata
 L'Hirondelle à tête noire (Atticora pileata) est une espèce de passereau de la famille des Hirundinidae. Son aire de répartition s'étend sur le Salvador, le Honduras, le Guatemala et le sud du Mexique.
